--- a/testdata/ex1.xlsx
+++ b/testdata/ex1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickarvatu/Desktop/Go Workspace/xlsx-recursion-detector/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{096E109A-B302-4E24-9323-586B4181CE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A33D1F9-F4FA-E54D-9DC5-8AC30AF4631A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{295DA2A4-A3E2-493F-8CD5-EA904370F1D0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{295DA2A4-A3E2-493F-8CD5-EA904370F1D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,15 +384,15 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>5</v>
       </c>
@@ -400,7 +400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -409,7 +409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>7</v>
       </c>
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>8</v>
       </c>
@@ -427,7 +427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>A1+A2</f>
         <v>11</v>
@@ -437,7 +437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <f ca="1">A5+A6</f>
         <v>0</v>
@@ -447,7 +447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <f ca="1">A1+A2+A7</f>
         <v>0</v>

--- a/testdata/ex1.xlsx
+++ b/testdata/ex1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickarvatu/Desktop/Go Workspace/xlsx-recursion-detector/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A33D1F9-F4FA-E54D-9DC5-8AC30AF4631A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5F9F95-3131-FC43-A76E-FA000107536B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{295DA2A4-A3E2-493F-8CD5-EA904370F1D0}"/>
   </bookViews>
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6238F8-B6CE-49EB-A512-D0887BDEB04E}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -392,15 +392,19 @@
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>5</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <f ca="1">B7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -409,7 +413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>7</v>
       </c>
@@ -418,7 +422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>8</v>
       </c>
@@ -427,7 +431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>A1+A2</f>
         <v>11</v>
@@ -437,17 +441,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <f ca="1">A5+A6</f>
         <v>0</v>
       </c>
       <c r="B6">
-        <f ca="1">B6+B7+B8+B1</f>
+        <f ca="1">B7+B8+B1+B4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <f ca="1">A1+A2+A7</f>
         <v>0</v>

--- a/testdata/ex1.xlsx
+++ b/testdata/ex1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickarvatu/Desktop/Go Workspace/xlsx-recursion-detector/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5F9F95-3131-FC43-A76E-FA000107536B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEE99BC-6689-2441-A934-5DD53C9D0B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{295DA2A4-A3E2-493F-8CD5-EA904370F1D0}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -447,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <f ca="1">B7+B8+B1+B4</f>
+        <f ca="1">B7+B1+B4</f>
         <v>0</v>
       </c>
     </row>

--- a/testdata/ex1.xlsx
+++ b/testdata/ex1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickarvatu/Desktop/Go Workspace/xlsx-recursion-detector/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEE99BC-6689-2441-A934-5DD53C9D0B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADF0FD6-8F3F-764E-BA6F-85AD67A4E722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{295DA2A4-A3E2-493F-8CD5-EA904370F1D0}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
